--- a/upload/Booking_Template.xlsx
+++ b/upload/Booking_Template.xlsx
@@ -1,45 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apache2.2\htdocs\kura2014\upload\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="8475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>商品管理番号</t>
-  </si>
-  <si>
-    <t>商品名称</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>追踪番号</t>
-  </si>
-  <si>
-    <t>TEST001</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="38"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">コントロール
 </t>
     </r>
@@ -53,35 +39,75 @@
       </rPr>
       <t>(n/u/d)</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品管理番号</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>仕様</t>
+  </si>
+  <si>
+    <t>単価</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>追踪番号</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <r>
+      <t>发货</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="38"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状態
+0=未着 1=発注済 2=到着済</t>
+    </r>
+  </si>
+  <si>
+    <t>審査
+0=未審査 1=同意 2=不同意</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
   <si>
     <t>TYPE002</t>
   </si>
   <si>
+    <t>NAME002</t>
+  </si>
+  <si>
     <t>TRACK002</t>
   </si>
   <si>
-    <t>COMPANY002</t>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>仕様</t>
-  </si>
-  <si>
-    <t>単価</t>
-  </si>
-  <si>
-    <t>備考</t>
+    <t>COMMENT2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -98,6 +124,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="38"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -108,18 +147,6 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="38"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="38"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
       <family val="38"/>
       <charset val="134"/>
     </font>
@@ -156,25 +183,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -182,26 +224,25 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="標準" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+  <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
+    <cellStyle name="货币" xfId="3" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="百分比" xfId="5" builtinId="5"/>
+    <cellStyle name="標準" xfId="6"/>
+    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -500,7 +541,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -533,60 +573,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GX2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="13.25" style="2" customWidth="1"/>
-    <col min="9" max="206" width="9" style="2"/>
+    <col min="1" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
+    <col min="9" max="203" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="57" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="57" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>5</v>
@@ -595,16 +642,25 @@
         <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <hyperlinks>
+    <hyperlink ref="J1" r:id="rId1" display="審査&#10;0=未審査 1=同意 2=不同意"/>
+    <hyperlink ref="I1" r:id="rId1" display="发货状態&#10;0=未着 1=発注済 2=到着済"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
